--- a/data/trans_camb/P28B_1_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P28B_1_R-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N31"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,9 +526,6 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
-    <col width="14" customWidth="1" min="12" max="12"/>
-    <col width="14" customWidth="1" min="13" max="13"/>
-    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -545,23 +542,20 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
+      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
-      <c r="N1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +577,32 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M1</t>
+          <t>M2/M1</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M3/M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M4/M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>M2/M1</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>M3/M1</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>M4/M1</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
         </is>
       </c>
     </row>
@@ -639,9 +618,6 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
-      <c r="L3" s="2" t="n"/>
-      <c r="M3" s="2" t="n"/>
-      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-12,76</t>
+          <t>-12,83</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-23,77</t>
+          <t>-23,64</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-25,92</t>
+          <t>-25,07</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-13,77</t>
+          <t>-22,41</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-22,12</t>
+          <t>-25,45</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-25,41</t>
+          <t>-32,03</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-31,71</t>
+          <t>-17,35</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-11,38</t>
+          <t>-24,27</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-17,16</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>-24,3</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>-28,46</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>-12,68</t>
+          <t>-28,21</t>
         </is>
       </c>
     </row>
@@ -724,62 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-24,2; -2,37</t>
+          <t>-23,87; -1,87</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-34,64; -14,84</t>
+          <t>-33,35; -13,44</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-36,23; -15,03</t>
+          <t>-35,07; -14,03</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-24,99; -1,34</t>
+          <t>-32,74; -11,58</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-31,55; -10,38</t>
+          <t>-34,57; -14,78</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-35,75; -14,62</t>
+          <t>-41,48; -21,6</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-41,43; -21,18</t>
+          <t>-25,03; -9,42</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-23,96; 2,44</t>
+          <t>-31,25; -16,91</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-25,9; -9,99</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-31,64; -17,4</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>-35,96; -21,41</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>-20,65; -3,72</t>
+          <t>-35,52; -21,11</t>
         </is>
       </c>
     </row>
@@ -792,62 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-31,0%</t>
+          <t>-31,15%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-57,74%</t>
+          <t>-57,43%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-62,96%</t>
+          <t>-60,88%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-33,44%</t>
+          <t>-41,58%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-40,84%</t>
+          <t>-47,22%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-46,92%</t>
+          <t>-59,43%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-58,54%</t>
+          <t>-36,75%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-21,02%</t>
+          <t>-51,41%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-36,26%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>-51,35%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>-60,14%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>-26,79%</t>
+          <t>-59,76%</t>
         </is>
       </c>
     </row>
@@ -860,62 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-52,77; -5,02</t>
+          <t>-50,84; -5,02</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-72,72; -36,82</t>
+          <t>-72,63; -34,8</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-77,63; -40,24</t>
+          <t>-77,16; -37,25</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-55,78; -3,21</t>
+          <t>-56,52; -24,28</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-54,55; -20,93</t>
+          <t>-59,92; -31,24</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-59,91; -30,7</t>
+          <t>-71,17; -44,25</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-70,67; -42,66</t>
+          <t>-49,7; -22,52</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-40,37; 5,38</t>
+          <t>-61,39; -38,15</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-50,18; -22,49</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-61,85; -38,99</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>-70,26; -48,59</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>-40,79; -8,44</t>
+          <t>-69,95; -46,64</t>
         </is>
       </c>
     </row>
@@ -932,62 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-9,42</t>
+          <t>-8,89</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-15,7</t>
+          <t>-15,94</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-18,52</t>
+          <t>-18,78</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-11,02</t>
+          <t>-12,14</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-12,18</t>
+          <t>-19,95</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-20,13</t>
+          <t>-20,87</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-20,84</t>
+          <t>-10,38</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-15,52</t>
+          <t>-17,93</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-10,66</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>-17,88</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>-19,8</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>-13,1</t>
+          <t>-19,99</t>
         </is>
       </c>
     </row>
@@ -1000,62 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-22,15; 5,69</t>
+          <t>-22,27; 5,93</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-27,02; -6,12</t>
+          <t>-27,39; -5,56</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-30,67; -7,44</t>
+          <t>-30,75; -8,62</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-23,69; 2,46</t>
+          <t>-21,45; -0,25</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-21,89; -1,03</t>
+          <t>-29,17; -11,27</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-30,35; -10,91</t>
+          <t>-30,01; -11,44</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-30,27; -11,74</t>
+          <t>-18,51; -0,87</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-25,89; -4,84</t>
+          <t>-24,95; -11,2</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-19,78; -2,55</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-25,9; -11,54</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>-26,95; -13,14</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>-20,78; -3,91</t>
+          <t>-27,34; -12,4</t>
         </is>
       </c>
     </row>
@@ -1068,62 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-27,95%</t>
+          <t>-26,36%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-46,57%</t>
+          <t>-47,28%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-54,92%</t>
+          <t>-55,71%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-32,7%</t>
+          <t>-25,47%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-25,56%</t>
+          <t>-41,86%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-42,24%</t>
+          <t>-43,8%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-43,72%</t>
+          <t>-25,69%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-32,57%</t>
+          <t>-44,37%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-26,38%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>-44,25%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>-49,01%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>-32,42%</t>
+          <t>-49,47%</t>
         </is>
       </c>
     </row>
@@ -1136,62 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-56,34; 19,9</t>
+          <t>-56,22; 24,79</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-64,31; -19,71</t>
+          <t>-66,35; -20,38</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-73,69; -22,63</t>
+          <t>-74,07; -26,31</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-61,38; 9,44</t>
+          <t>-41,66; -0,48</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-42,57; -2,41</t>
+          <t>-55,61; -25,77</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-57,56; -26,4</t>
+          <t>-56,89; -27,03</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-57,64; -27,65</t>
+          <t>-41,49; -1,77</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-49,09; -10,64</t>
+          <t>-55,92; -29,79</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-43,88; -6,47</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>-57,52; -30,84</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>-60,15; -33,83</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>-47,49; -10,07</t>
+          <t>-60,94; -32,72</t>
         </is>
       </c>
     </row>
@@ -1208,62 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-12,16</t>
+          <t>-9,85</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-20,1</t>
+          <t>-20,03</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-20,19</t>
+          <t>-19,88</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-19,96</t>
+          <t>-22,69</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-23,54</t>
+          <t>-30,05</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-30,25</t>
+          <t>-33,08</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-33,35</t>
+          <t>-16,34</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-23,99</t>
+          <t>-25,06</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-17,95</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>-25,21</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>-26,84</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>-22,44</t>
+          <t>-26,55</t>
         </is>
       </c>
     </row>
@@ -1276,62 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-21,48; -2,95</t>
+          <t>-18,45; 0,32</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-28,06; -12,02</t>
+          <t>-29,71; -12,02</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-28,5; -11,05</t>
+          <t>-27,98; -10,16</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-29,07; -11,33</t>
+          <t>-30,38; -13,85</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-31,3; -15,96</t>
+          <t>-37,08; -22,87</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-38,1; -23,32</t>
+          <t>-40,17; -26,72</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-40,77; -26,75</t>
+          <t>-22,62; -10,18</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-32,76; -16,81</t>
+          <t>-29,84; -18,72</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-23,83; -11,32</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>-30,33; -19,85</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>-32,35; -21,44</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>-28,13; -16,69</t>
+          <t>-31,98; -20,04</t>
         </is>
       </c>
     </row>
@@ -1344,62 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-31,89%</t>
+          <t>-25,83%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-52,74%</t>
+          <t>-52,54%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-52,96%</t>
+          <t>-52,16%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-52,35%</t>
+          <t>-41,3%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-42,84%</t>
+          <t>-54,68%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-55,06%</t>
+          <t>-60,2%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-60,69%</t>
+          <t>-35,04%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-43,67%</t>
+          <t>-53,72%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-38,48%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>-54,04%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>-57,54%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>-48,1%</t>
+          <t>-56,92%</t>
         </is>
       </c>
     </row>
@@ -1412,62 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-51,47; -9,04</t>
+          <t>-44,84; 0,73</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-66,13; -36,23</t>
+          <t>-67,62; -35,67</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-67,97; -31,89</t>
+          <t>-65,39; -28,71</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-68,34; -34,83</t>
+          <t>-51,98; -26,22</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-53,47; -30,91</t>
+          <t>-62,61; -44,45</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-63,94; -44,85</t>
+          <t>-68,53; -51,63</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-68,67; -51,52</t>
+          <t>-45,98; -23,69</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-55,84; -32,16</t>
+          <t>-60,84; -44,0</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-48,41; -25,57</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>-62,35; -45,61</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>-64,86; -48,42</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>-56,52; -36,94</t>
+          <t>-64,48; -46,11</t>
         </is>
       </c>
     </row>
@@ -1484,62 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-18,23</t>
+          <t>-17,53</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-21,12</t>
+          <t>-20,7</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-26,25</t>
+          <t>-26,13</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-19,98</t>
+          <t>-16,55</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-17,23</t>
+          <t>-19,13</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-19,43</t>
+          <t>-23,09</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-23,55</t>
+          <t>-17,11</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-12,71</t>
+          <t>-20,04</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-17,74</t>
-        </is>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>-20,39</t>
-        </is>
-      </c>
-      <c r="M16" s="2" t="inlineStr">
-        <is>
-          <t>-25,02</t>
-        </is>
-      </c>
-      <c r="N16" s="2" t="inlineStr">
-        <is>
-          <t>-17,03</t>
+          <t>-24,72</t>
         </is>
       </c>
     </row>
@@ -1552,62 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-26,02; -10,55</t>
+          <t>-25,16; -9,61</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-29,27; -13,72</t>
+          <t>-28,09; -12,99</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-33,36; -19,03</t>
+          <t>-33,03; -18,21</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-28,03; -10,46</t>
+          <t>-23,97; -8,79</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-23,85; -9,77</t>
+          <t>-25,77; -12,04</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-26,26; -11,76</t>
+          <t>-29,63; -16,23</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-30,27; -16,52</t>
+          <t>-22,6; -11,59</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-20,94; -4,7</t>
+          <t>-25,17; -14,68</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-23,11; -12,55</t>
-        </is>
-      </c>
-      <c r="L17" s="2" t="inlineStr">
-        <is>
-          <t>-25,4; -15,22</t>
-        </is>
-      </c>
-      <c r="M17" s="2" t="inlineStr">
-        <is>
-          <t>-30,47; -20,21</t>
-        </is>
-      </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>-23,21; -11,51</t>
+          <t>-29,91; -20,21</t>
         </is>
       </c>
     </row>
@@ -1620,62 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-46,61%</t>
+          <t>-44,99%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-54,0%</t>
+          <t>-53,1%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-67,12%</t>
+          <t>-67,03%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-51,09%</t>
+          <t>-34,14%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-35,37%</t>
+          <t>-39,48%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-39,88%</t>
+          <t>-47,65%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-48,34%</t>
+          <t>-38,93%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-26,09%</t>
+          <t>-45,59%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-40,19%</t>
-        </is>
-      </c>
-      <c r="L18" s="2" t="inlineStr">
-        <is>
-          <t>-46,2%</t>
-        </is>
-      </c>
-      <c r="M18" s="2" t="inlineStr">
-        <is>
-          <t>-56,69%</t>
-        </is>
-      </c>
-      <c r="N18" s="2" t="inlineStr">
-        <is>
-          <t>-38,59%</t>
+          <t>-56,24%</t>
         </is>
       </c>
     </row>
@@ -1688,62 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-59,82; -29,45</t>
+          <t>-59,44; -28,32</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-66,46; -39,0</t>
+          <t>-65,61; -36,99</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-77,01; -54,1</t>
+          <t>-76,35; -50,85</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-66,61; -29,08</t>
+          <t>-46,41; -19,25</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-46,65; -21,58</t>
+          <t>-50,41; -27,29</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-50,52; -26,15</t>
+          <t>-56,87; -36,04</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-58,13; -36,42</t>
+          <t>-48,13; -27,83</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-40,47; -9,82</t>
+          <t>-53,77; -35,25</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-49,59; -30,14</t>
-        </is>
-      </c>
-      <c r="L19" s="2" t="inlineStr">
-        <is>
-          <t>-54,63; -36,84</t>
-        </is>
-      </c>
-      <c r="M19" s="2" t="inlineStr">
-        <is>
-          <t>-64,34; -48,84</t>
-        </is>
-      </c>
-      <c r="N19" s="2" t="inlineStr">
-        <is>
-          <t>-50,65; -27,27</t>
+          <t>-63,03; -47,79</t>
         </is>
       </c>
     </row>
@@ -1760,62 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-10,99</t>
+          <t>-10,9</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-11,03</t>
+          <t>-10,62</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-18,52</t>
+          <t>-18,34</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-9,49</t>
+          <t>-15,22</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-15,46</t>
+          <t>-16,17</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-16,05</t>
+          <t>-27,22</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>-27,35</t>
+          <t>-12,94</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>-13,91</t>
+          <t>-13,36</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-13,09</t>
-        </is>
-      </c>
-      <c r="L20" s="2" t="inlineStr">
-        <is>
-          <t>-13,5</t>
-        </is>
-      </c>
-      <c r="M20" s="2" t="inlineStr">
-        <is>
-          <t>-22,87</t>
-        </is>
-      </c>
-      <c r="N20" s="2" t="inlineStr">
-        <is>
-          <t>-11,51</t>
+          <t>-22,71</t>
         </is>
       </c>
     </row>
@@ -1828,62 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-19,79; -1,86</t>
+          <t>-18,8; -2,39</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-19,34; -2,34</t>
+          <t>-18,16; -2,13</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-26,35; -11,64</t>
+          <t>-25,64; -10,84</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-17,53; -0,41</t>
+          <t>-23,91; -6,02</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-24,7; -6,27</t>
+          <t>-24,29; -8,14</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-24,19; -7,92</t>
+          <t>-34,68; -19,59</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-34,27; -18,85</t>
+          <t>-18,53; -6,8</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-22,46; -4,71</t>
+          <t>-19,53; -7,5</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-19,9; -6,36</t>
-        </is>
-      </c>
-      <c r="L21" s="2" t="inlineStr">
-        <is>
-          <t>-19,22; -7,38</t>
-        </is>
-      </c>
-      <c r="M21" s="2" t="inlineStr">
-        <is>
-          <t>-27,82; -17,36</t>
-        </is>
-      </c>
-      <c r="N21" s="2" t="inlineStr">
-        <is>
-          <t>-17,2; -5,1</t>
+          <t>-27,73; -17,14</t>
         </is>
       </c>
     </row>
@@ -1896,62 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-36,55%</t>
+          <t>-36,23%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-36,67%</t>
+          <t>-35,32%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-61,61%</t>
+          <t>-60,98%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-31,56%</t>
+          <t>-37,25%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-37,84%</t>
+          <t>-39,56%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-39,27%</t>
+          <t>-66,61%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>-66,93%</t>
+          <t>-36,52%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>-34,04%</t>
+          <t>-37,71%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-36,97%</t>
-        </is>
-      </c>
-      <c r="L22" s="2" t="inlineStr">
-        <is>
-          <t>-38,11%</t>
-        </is>
-      </c>
-      <c r="M22" s="2" t="inlineStr">
-        <is>
-          <t>-64,57%</t>
-        </is>
-      </c>
-      <c r="N22" s="2" t="inlineStr">
-        <is>
-          <t>-32,5%</t>
+          <t>-64,12%</t>
         </is>
       </c>
     </row>
@@ -1964,62 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-57,62; -5,49</t>
+          <t>-56,56; -6,49</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-56,3; -9,48</t>
+          <t>-55,22; -8,66</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-74,29; -44,25</t>
+          <t>-73,66; -41,73</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-51,99; -1,0</t>
+          <t>-53,07; -15,92</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-55,25; -17,36</t>
+          <t>-53,8; -22,19</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-53,77; -21,87</t>
+          <t>-76,79; -52,38</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-76,92; -53,07</t>
+          <t>-48,98; -20,91</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-49,74; -12,83</t>
+          <t>-50,98; -22,25</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-51,15; -18,96</t>
-        </is>
-      </c>
-      <c r="L23" s="2" t="inlineStr">
-        <is>
-          <t>-49,7; -22,56</t>
-        </is>
-      </c>
-      <c r="M23" s="2" t="inlineStr">
-        <is>
-          <t>-72,23; -53,88</t>
-        </is>
-      </c>
-      <c r="N23" s="2" t="inlineStr">
-        <is>
-          <t>-44,65; -15,77</t>
+          <t>-72,27; -53,57</t>
         </is>
       </c>
     </row>
@@ -2036,62 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-17,01</t>
+          <t>-17,28</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-22,71</t>
+          <t>-22,59</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-20,11</t>
+          <t>-19,72</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-16,95</t>
+          <t>-12,93</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-13,61</t>
+          <t>-12,43</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-12,55</t>
+          <t>-13,57</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>-15,01</t>
+          <t>-14,81</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>-16,54</t>
+          <t>-16,82</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>-15,08</t>
-        </is>
-      </c>
-      <c r="L24" s="2" t="inlineStr">
-        <is>
-          <t>-16,95</t>
-        </is>
-      </c>
-      <c r="M24" s="2" t="inlineStr">
-        <is>
-          <t>-17,22</t>
-        </is>
-      </c>
-      <c r="N24" s="2" t="inlineStr">
-        <is>
-          <t>-16,71</t>
+          <t>-16,24</t>
         </is>
       </c>
     </row>
@@ -2104,62 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-25,07; -8,31</t>
+          <t>-24,94; -9,28</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-30,08; -15,13</t>
+          <t>-30,09; -15,33</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-28,43; -13,0</t>
+          <t>-26,9; -11,97</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-25,33; -8,07</t>
+          <t>-20,42; -4,8</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-21,09; -5,35</t>
+          <t>-20,09; -5,07</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-20,19; -5,21</t>
+          <t>-20,85; -5,24</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-22,92; -7,52</t>
+          <t>-20,51; -9,31</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-25,11; -7,29</t>
+          <t>-22,08; -11,53</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-21,0; -9,14</t>
-        </is>
-      </c>
-      <c r="L25" s="2" t="inlineStr">
-        <is>
-          <t>-22,49; -11,56</t>
-        </is>
-      </c>
-      <c r="M25" s="2" t="inlineStr">
-        <is>
-          <t>-22,58; -11,25</t>
-        </is>
-      </c>
-      <c r="N25" s="2" t="inlineStr">
-        <is>
-          <t>-22,57; -10,41</t>
+          <t>-21,75; -10,4</t>
         </is>
       </c>
     </row>
@@ -2172,62 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-58,34%</t>
+          <t>-59,26%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-77,89%</t>
+          <t>-77,46%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-68,97%</t>
+          <t>-67,62%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>-58,15%</t>
+          <t>-43,14%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-45,23%</t>
+          <t>-41,45%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-41,71%</t>
+          <t>-45,28%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>-49,89%</t>
+          <t>-49,98%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>-54,96%</t>
+          <t>-56,78%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>-50,8%</t>
-        </is>
-      </c>
-      <c r="L26" s="2" t="inlineStr">
-        <is>
-          <t>-57,08%</t>
-        </is>
-      </c>
-      <c r="M26" s="2" t="inlineStr">
-        <is>
-          <t>-57,99%</t>
-        </is>
-      </c>
-      <c r="N26" s="2" t="inlineStr">
-        <is>
-          <t>-56,28%</t>
+          <t>-54,82%</t>
         </is>
       </c>
     </row>
@@ -2240,62 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-76,06; -33,48</t>
+          <t>-74,54; -35,86</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-88,53; -54,82</t>
+          <t>-88,25; -56,84</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-82,46; -47,92</t>
+          <t>-81,02; -45,99</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-75,71; -30,56</t>
+          <t>-60,74; -17,92</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-62,55; -19,26</t>
+          <t>-59,67; -18,05</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-60,32; -19,26</t>
+          <t>-62,23; -17,1</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-67,15; -27,01</t>
+          <t>-62,91; -34,27</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-73,35; -25,4</t>
+          <t>-66,78; -41,77</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-63,53; -33,77</t>
-        </is>
-      </c>
-      <c r="L27" s="2" t="inlineStr">
-        <is>
-          <t>-68,3; -42,67</t>
-        </is>
-      </c>
-      <c r="M27" s="2" t="inlineStr">
-        <is>
-          <t>-70,13; -42,17</t>
-        </is>
-      </c>
-      <c r="N27" s="2" t="inlineStr">
-        <is>
-          <t>-69,28; -35,79</t>
+          <t>-66,35; -35,98</t>
         </is>
       </c>
     </row>
@@ -2312,62 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-13,48</t>
+          <t>-12,86</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-19,1</t>
+          <t>-18,96</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-21,57</t>
+          <t>-21,33</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>-15,61</t>
+          <t>-16,88</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-17,32</t>
+          <t>-20,29</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-20,42</t>
+          <t>-24,51</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>-24,88</t>
+          <t>-14,9</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>-16,45</t>
+          <t>-19,65</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>-15,43</t>
-        </is>
-      </c>
-      <c r="L28" s="2" t="inlineStr">
-        <is>
-          <t>-19,77</t>
-        </is>
-      </c>
-      <c r="M28" s="2" t="inlineStr">
-        <is>
-          <t>-23,26</t>
-        </is>
-      </c>
-      <c r="N28" s="2" t="inlineStr">
-        <is>
-          <t>-16,13</t>
+          <t>-22,96</t>
         </is>
       </c>
     </row>
@@ -2380,62 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-17,64; -9,52</t>
+          <t>-16,7; -8,58</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-23,03; -15,74</t>
+          <t>-22,35; -15,42</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-25,12; -18,22</t>
+          <t>-25,27; -18,14</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-19,69; -11,58</t>
+          <t>-20,55; -13,41</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-20,61; -13,78</t>
+          <t>-23,45; -16,47</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-23,89; -17,22</t>
+          <t>-27,52; -20,82</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-27,94; -21,63</t>
+          <t>-17,46; -12,36</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-20,18; -12,78</t>
+          <t>-21,99; -17,27</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-18,14; -12,67</t>
-        </is>
-      </c>
-      <c r="L29" s="2" t="inlineStr">
-        <is>
-          <t>-22,02; -17,24</t>
-        </is>
-      </c>
-      <c r="M29" s="2" t="inlineStr">
-        <is>
-          <t>-25,53; -20,79</t>
-        </is>
-      </c>
-      <c r="N29" s="2" t="inlineStr">
-        <is>
-          <t>-18,88; -13,3</t>
+          <t>-25,21; -20,49</t>
         </is>
       </c>
     </row>
@@ -2448,62 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-38,06%</t>
+          <t>-36,33%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-53,93%</t>
+          <t>-53,56%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-60,91%</t>
+          <t>-60,24%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>-44,08%</t>
+          <t>-37,11%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-37,99%</t>
+          <t>-44,61%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-44,77%</t>
+          <t>-53,88%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>-54,57%</t>
+          <t>-36,74%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>-36,07%</t>
+          <t>-48,43%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>-37,98%</t>
-        </is>
-      </c>
-      <c r="L30" s="2" t="inlineStr">
-        <is>
-          <t>-48,68%</t>
-        </is>
-      </c>
-      <c r="M30" s="2" t="inlineStr">
-        <is>
-          <t>-57,27%</t>
-        </is>
-      </c>
-      <c r="N30" s="2" t="inlineStr">
-        <is>
-          <t>-39,71%</t>
+          <t>-56,6%</t>
         </is>
       </c>
     </row>
@@ -2516,76 +2087,68 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-47,24; -27,86</t>
+          <t>-44,73; -25,4</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-61,15; -47,2</t>
+          <t>-60,4; -45,81</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-67,09; -53,16</t>
+          <t>-67,09; -53,47</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-52,95; -34,05</t>
+          <t>-43,28; -30,53</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-43,78; -31,9</t>
+          <t>-50,13; -38,19</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-50,52; -39,23</t>
+          <t>-58,75; -47,67</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-59,29; -49,22</t>
+          <t>-41,73; -31,36</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-43,07; -29,16</t>
+          <t>-52,87; -43,85</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-43,26; -31,42</t>
-        </is>
-      </c>
-      <c r="L31" s="2" t="inlineStr">
-        <is>
-          <t>-53,11; -43,98</t>
-        </is>
-      </c>
-      <c r="M31" s="2" t="inlineStr">
-        <is>
-          <t>-61,09; -52,73</t>
-        </is>
-      </c>
-      <c r="N31" s="2" t="inlineStr">
-        <is>
-          <t>-45,39; -33,85</t>
+          <t>-60,91; -52,25</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
